--- a/result/NCDC_weather_data/stations_imputed/51243099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/51243099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>1.697652</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O2" t="n">
         <v>68.90000000000001</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,7 +629,9 @@
       <c r="M3" t="n">
         <v>1.491876</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O3" t="n">
         <v>63.68000000000001</v>
       </c>
@@ -635,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -681,7 +689,9 @@
       <c r="M4" t="n">
         <v>1.80054</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O4" t="n">
         <v>66.2</v>
       </c>
@@ -691,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -737,7 +749,9 @@
       <c r="M5" t="n">
         <v>0.977436</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O5" t="n">
         <v>66.2</v>
       </c>
@@ -747,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -793,7 +809,9 @@
       <c r="M6" t="n">
         <v>0.977436</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O6" t="n">
         <v>62.96</v>
       </c>
@@ -803,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -849,7 +869,9 @@
       <c r="M7" t="n">
         <v>1.2861</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O7" t="n">
         <v>67.64</v>
       </c>
@@ -859,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -905,7 +929,9 @@
       <c r="M8" t="n">
         <v>1.080324</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O8" t="n">
         <v>67.64</v>
       </c>
@@ -915,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -961,7 +989,9 @@
       <c r="M9" t="n">
         <v>1.080324</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O9" t="n">
         <v>66.92</v>
       </c>
@@ -971,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1017,7 +1049,9 @@
       <c r="M10" t="n">
         <v>1.2861</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O10" t="n">
         <v>67.64</v>
       </c>
@@ -1027,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1073,7 +1109,9 @@
       <c r="M11" t="n">
         <v>1.697652</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O11" t="n">
         <v>69.80000000000001</v>
       </c>
@@ -1083,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1129,7 +1169,9 @@
       <c r="M12" t="n">
         <v>2.109204</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O12" t="n">
         <v>72.14</v>
       </c>
@@ -1139,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0.009906</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1185,7 +1229,9 @@
       <c r="M13" t="n">
         <v>2.623644</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O13" t="n">
         <v>72.14</v>
       </c>
@@ -1195,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0.009906</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1241,7 +1289,9 @@
       <c r="M14" t="n">
         <v>0.977436</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O14" t="n">
         <v>64.58000000000001</v>
       </c>
@@ -1251,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1297,7 +1349,9 @@
       <c r="M15" t="n">
         <v>2.31498</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O15" t="n">
         <v>62.78</v>
       </c>
@@ -1307,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1353,7 +1409,9 @@
       <c r="M16" t="n">
         <v>2.109204</v>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O16" t="n">
         <v>66.92</v>
       </c>
@@ -1363,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1409,7 +1469,9 @@
       <c r="M17" t="n">
         <v>1.080324</v>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O17" t="n">
         <v>74.12</v>
       </c>
@@ -1419,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1465,7 +1529,9 @@
       <c r="M18" t="n">
         <v>1.491876</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O18" t="n">
         <v>78.98</v>
       </c>
@@ -1475,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1521,7 +1589,9 @@
       <c r="M19" t="n">
         <v>1.388988</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O19" t="n">
         <v>78.98</v>
       </c>
@@ -1531,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1577,7 +1649,9 @@
       <c r="M20" t="n">
         <v>0.617328</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O20" t="n">
         <v>79.16</v>
       </c>
@@ -1587,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.02781721500721501</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1633,7 +1709,9 @@
       <c r="M21" t="n">
         <v>1.491876</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>9.595309604046243</v>
+      </c>
       <c r="O21" t="n">
         <v>79.16</v>
       </c>
